--- a/_apidocs/entity-api/v1/v3_CSV_Response.xlsx
+++ b/_apidocs/entity-api/v1/v3_CSV_Response.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\E04TCK-XDVCFP1\RedirAE$\jyothirmayichavali\Desktop\PI34\Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MATTFINNELL\git\open-gsa-redesign\_apidocs\entity-api\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785C4DCE-67C6-4944-BACD-F22D026BC64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB31FCB2-5365-408B-ABF4-679E9D9917B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example6-Entity (3)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="381">
   <si>
     <t>samRegistered</t>
   </si>
@@ -1144,12 +1144,6 @@
     <t>SOMETHING@SAM.GOV</t>
   </si>
   <si>
-    <t>sourceType</t>
-  </si>
-  <si>
-    <t>SAM</t>
-  </si>
-  <si>
     <t>publicDisplayFlag</t>
   </si>
   <si>
@@ -1166,6 +1160,9 @@
   </si>
   <si>
     <t>ultimateParentEntity.evsSource</t>
+  </si>
+  <si>
+    <t>evsSource</t>
   </si>
 </sst>
 </file>
@@ -2017,47 +2014,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ML2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="JO1" workbookViewId="0">
-      <selection activeCell="KI10" sqref="KI10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.1796875" style="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="19.28515625" style="1" customWidth="1"/>
-    <col min="16" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="26.7109375" style="1" customWidth="1"/>
-    <col min="22" max="25" width="9.140625" style="1"/>
-    <col min="26" max="26" width="40.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="40.5703125" style="1" customWidth="1"/>
-    <col min="28" max="29" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="1"/>
-    <col min="31" max="31" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.140625" style="1"/>
+    <col min="4" max="10" width="9.1796875" style="1"/>
+    <col min="11" max="11" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1796875" style="1"/>
+    <col min="15" max="15" width="19.26953125" style="1" customWidth="1"/>
+    <col min="16" max="20" width="9.1796875" style="1"/>
+    <col min="21" max="21" width="26.7265625" style="1" customWidth="1"/>
+    <col min="22" max="25" width="9.1796875" style="1"/>
+    <col min="26" max="26" width="40.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="40.54296875" style="1" customWidth="1"/>
+    <col min="28" max="29" width="34.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.1796875" style="1"/>
+    <col min="31" max="31" width="42.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.1796875" style="1"/>
     <col min="34" max="34" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.140625" style="1"/>
-    <col min="37" max="37" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="33.5703125" style="1" customWidth="1"/>
-    <col min="40" max="49" width="9.140625" style="1"/>
-    <col min="50" max="50" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="27.5703125" style="1" customWidth="1"/>
-    <col min="52" max="53" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="61" width="9.140625" style="1"/>
-    <col min="62" max="62" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="38.42578125" style="1" customWidth="1"/>
-    <col min="64" max="64" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="290" width="9.140625" style="1"/>
+    <col min="35" max="36" width="9.1796875" style="1"/>
+    <col min="37" max="37" width="23.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="33.54296875" style="1" customWidth="1"/>
+    <col min="40" max="49" width="9.1796875" style="1"/>
+    <col min="50" max="50" width="27.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="27.54296875" style="1" customWidth="1"/>
+    <col min="52" max="53" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="61" width="9.1796875" style="1"/>
+    <col min="62" max="62" width="38.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="38.453125" style="1" customWidth="1"/>
+    <col min="64" max="64" width="32.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="290" width="9.1796875" style="1"/>
     <col min="291" max="291" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="292" max="16384" width="9.140625" style="1"/>
+    <col min="292" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:350" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:350" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2091,8 +2088,8 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>374</v>
+      <c r="L1" t="s">
+        <v>380</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -2116,7 +2113,7 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>18</v>
@@ -2137,7 +2134,7 @@
         <v>23</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>24</v>
@@ -2173,7 +2170,7 @@
         <v>34</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>35</v>
@@ -2209,7 +2206,7 @@
         <v>45</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>46</v>
@@ -2245,7 +2242,7 @@
         <v>56</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="BL1" s="1" t="s">
         <v>57</v>
@@ -3109,7 +3106,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:350" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:350" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>344</v>
       </c>
@@ -3144,7 +3141,7 @@
         <v>351</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M2" s="2">
         <v>44379</v>
@@ -3189,7 +3186,7 @@
         <v>346</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>346</v>
@@ -3225,7 +3222,7 @@
         <v>346</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>346</v>
@@ -3261,7 +3258,7 @@
         <v>346</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AZ2" s="1" t="s">
         <v>346</v>
@@ -3297,7 +3294,7 @@
         <v>346</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>346</v>

--- a/_apidocs/entity-api/v1/v3_CSV_Response.xlsx
+++ b/_apidocs/entity-api/v1/v3_CSV_Response.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MATTFINNELL\git\open-gsa-redesign\_apidocs\entity-api\v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BhargavBoppana\IdeaProjects\open-gsa-redesign1\_apidocs\entity-api\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB31FCB2-5365-408B-ABF4-679E9D9917B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132077DC-E10E-42EC-9DCD-95E83EA5930B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4092" yWindow="2340" windowWidth="16584" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example6-Entity (3)" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="380">
   <si>
     <t>samRegistered</t>
   </si>
   <si>
     <t>ueiSAM</t>
-  </si>
-  <si>
-    <t>ueiDUNS</t>
   </si>
   <si>
     <t>entityEFTIndicator</t>
@@ -2012,49 +2009,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ML2"/>
+  <dimension ref="A1:MK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="9.1796875" style="1"/>
-    <col min="11" max="11" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1796875" style="1"/>
-    <col min="15" max="15" width="19.26953125" style="1" customWidth="1"/>
-    <col min="16" max="20" width="9.1796875" style="1"/>
-    <col min="21" max="21" width="26.7265625" style="1" customWidth="1"/>
-    <col min="22" max="25" width="9.1796875" style="1"/>
-    <col min="26" max="26" width="40.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="40.54296875" style="1" customWidth="1"/>
-    <col min="28" max="29" width="34.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.1796875" style="1"/>
-    <col min="31" max="31" width="42.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.1796875" style="1"/>
-    <col min="34" max="34" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.1796875" style="1"/>
-    <col min="37" max="37" width="23.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="33.54296875" style="1" customWidth="1"/>
-    <col min="40" max="49" width="9.1796875" style="1"/>
-    <col min="50" max="50" width="27.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="27.54296875" style="1" customWidth="1"/>
-    <col min="52" max="53" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="61" width="9.1796875" style="1"/>
-    <col min="62" max="62" width="38.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="38.453125" style="1" customWidth="1"/>
-    <col min="64" max="64" width="32.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="290" width="9.1796875" style="1"/>
-    <col min="291" max="291" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="292" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="9" width="9.21875" style="1"/>
+    <col min="10" max="10" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.21875" style="1"/>
+    <col min="14" max="14" width="19.21875" style="1" customWidth="1"/>
+    <col min="15" max="19" width="9.21875" style="1"/>
+    <col min="20" max="20" width="26.77734375" style="1" customWidth="1"/>
+    <col min="21" max="24" width="9.21875" style="1"/>
+    <col min="25" max="25" width="40.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="40.5546875" style="1" customWidth="1"/>
+    <col min="27" max="28" width="34.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.21875" style="1"/>
+    <col min="30" max="30" width="42.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="9.21875" style="1"/>
+    <col min="33" max="33" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="9.21875" style="1"/>
+    <col min="36" max="36" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="33.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="33.5546875" style="1" customWidth="1"/>
+    <col min="39" max="48" width="9.21875" style="1"/>
+    <col min="49" max="49" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="27.5546875" style="1" customWidth="1"/>
+    <col min="51" max="52" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="60" width="9.21875" style="1"/>
+    <col min="61" max="61" width="38.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="38.44140625" style="1" customWidth="1"/>
+    <col min="63" max="63" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="289" width="9.21875" style="1"/>
+    <col min="290" max="290" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="291" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:350" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:349" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2085,11 +2080,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>380</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -2110,10 +2105,10 @@
         <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>18</v>
@@ -2131,10 +2126,10 @@
         <v>22</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>24</v>
@@ -2167,10 +2162,10 @@
         <v>33</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>35</v>
@@ -2203,10 +2198,10 @@
         <v>44</v>
       </c>
       <c r="AX1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>46</v>
@@ -2239,10 +2234,10 @@
         <v>55</v>
       </c>
       <c r="BJ1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="BL1" s="1" t="s">
         <v>57</v>
@@ -3102,34 +3097,31 @@
       <c r="MK1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="ML1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:349" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="2" spans="1:350" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C2" s="1">
-        <v>709741482</v>
+      <c r="C2" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>346</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>349</v>
@@ -3138,256 +3130,256 @@
         <v>350</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
+      </c>
+      <c r="L2" s="2">
+        <v>44379</v>
       </c>
       <c r="M2" s="2">
         <v>44379</v>
       </c>
       <c r="N2" s="2">
+        <v>44744</v>
+      </c>
+      <c r="O2" s="2">
         <v>44379</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q2" s="2">
         <v>44744</v>
       </c>
-      <c r="P2" s="2">
+      <c r="R2" s="2">
         <v>44379</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="R2" s="2">
-        <v>44744</v>
-      </c>
-      <c r="S2" s="2">
+      <c r="T2" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="CM2" s="2">
+        <v>29160</v>
+      </c>
+      <c r="CN2" s="3">
+        <v>44500</v>
+      </c>
+      <c r="CO2" s="2">
         <v>44379</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BT2" s="1" t="s">
+      <c r="CP2" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="CK2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="CM2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="CN2" s="2">
-        <v>29160</v>
-      </c>
-      <c r="CO2" s="3">
-        <v>44500</v>
-      </c>
-      <c r="CP2" s="2">
-        <v>44379</v>
       </c>
       <c r="CQ2" s="1" t="s">
         <v>354</v>
@@ -3398,17 +3390,17 @@
       <c r="CS2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CT2" s="1">
+        <v>11111</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>1111</v>
+      </c>
+      <c r="CV2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="CU2" s="1">
-        <v>11111</v>
-      </c>
-      <c r="CV2" s="1">
-        <v>1111</v>
-      </c>
       <c r="CW2" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="CX2" s="1" t="s">
         <v>354</v>
@@ -3419,26 +3411,26 @@
       <c r="CZ2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="DA2" s="1" t="s">
+      <c r="DA2" s="1">
+        <v>11111</v>
+      </c>
+      <c r="DB2" s="1">
+        <v>1111</v>
+      </c>
+      <c r="DC2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="DB2" s="1">
-        <v>11111</v>
-      </c>
-      <c r="DC2" s="1">
-        <v>1111</v>
-      </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="DG2" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="DE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="DG2" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="DH2" s="1" t="s">
         <v>359</v>
@@ -3456,172 +3448,172 @@
         <v>363</v>
       </c>
       <c r="DM2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="DN2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="DR2" s="1" t="s">
         <v>365</v>
       </c>
       <c r="DS2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="DW2" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="DT2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="DU2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="DV2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="DW2" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="DX2" s="1" t="s">
         <v>367</v>
       </c>
       <c r="DY2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="DZ2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EA2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EB2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EC2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="DZ2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EA2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EB2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EC2" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="ED2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EF2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EH2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EJ2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EK2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EL2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EM2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EN2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EO2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EP2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EQ2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="ER2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="ES2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="ET2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EU2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EV2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EW2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EX2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EY2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EZ2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="FA2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="FB2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="FC2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="FD2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="FE2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="FF2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="FG2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="EE2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EF2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EG2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EH2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EI2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EJ2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EK2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EL2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EM2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EN2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EO2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EP2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EQ2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="ER2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="ES2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="ET2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EU2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EV2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EW2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EX2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EY2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EZ2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="FA2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="FB2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="FC2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="FD2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="FE2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="FF2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="FG2" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="FH2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="FI2" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="FI2" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="FJ2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="FK2" s="1" t="s">
+      <c r="FK2" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="FL2" s="1">
+        <v>1234</v>
+      </c>
+      <c r="FM2" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="FN2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="FO2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="FL2" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="FM2" s="1">
-        <v>1234</v>
-      </c>
-      <c r="FN2" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="FO2" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="FP2" s="1" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="FQ2" s="1" t="s">
         <v>354</v>
@@ -3632,44 +3624,44 @@
       <c r="FS2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="FT2" s="1" t="s">
+      <c r="FT2" s="1">
+        <v>11111</v>
+      </c>
+      <c r="FU2" s="1">
+        <v>1111</v>
+      </c>
+      <c r="FV2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="FU2" s="1">
-        <v>11111</v>
-      </c>
-      <c r="FV2" s="1">
-        <v>1111</v>
-      </c>
       <c r="FW2" s="1" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="FX2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="FY2" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="FY2" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="FZ2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="GA2" s="1" t="s">
+      <c r="GA2" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="GB2" s="1">
+        <v>1234</v>
+      </c>
+      <c r="GC2" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="GD2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="GE2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="GB2" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="GC2" s="1">
-        <v>1234</v>
-      </c>
-      <c r="GD2" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="GE2" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="GF2" s="1" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="GG2" s="1" t="s">
         <v>354</v>
@@ -3680,482 +3672,479 @@
       <c r="GI2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="GJ2" s="1" t="s">
+      <c r="GJ2" s="1">
+        <v>11111</v>
+      </c>
+      <c r="GK2" s="1">
+        <v>1111</v>
+      </c>
+      <c r="GL2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="GK2" s="1">
-        <v>11111</v>
-      </c>
-      <c r="GL2" s="1">
-        <v>1111</v>
-      </c>
       <c r="GM2" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="GN2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="GO2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="GP2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="GQ2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="GR2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="GS2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="GT2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="GU2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="GV2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="GW2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="GX2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="GY2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="GZ2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HA2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HB2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HC2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HD2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HE2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HF2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HG2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HH2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HI2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HJ2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HK2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HL2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HM2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HN2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HO2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HP2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HQ2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HR2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HS2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HT2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HU2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HV2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HW2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HX2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HY2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="HZ2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IA2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IB2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IC2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="ID2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IE2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IF2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IG2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IH2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="II2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IJ2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IK2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IL2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IM2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IN2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IO2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IP2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IQ2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IR2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IS2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IT2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IU2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IV2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IW2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IX2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IY2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="IZ2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JA2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JB2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JC2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JD2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JE2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JF2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JG2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JH2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JI2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JJ2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JK2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JL2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JM2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JN2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JO2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JP2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JQ2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JR2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JS2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JT2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JU2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JV2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JW2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="JX2" s="1" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="JY2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="JZ2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="JZ2" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="KA2" s="1" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="KB2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="KC2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="KD2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="KE2" s="1">
+        <v>345</v>
+      </c>
+      <c r="KD2" s="1">
         <v>1234567890</v>
       </c>
+      <c r="KE2" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="KF2" s="1" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="KG2" s="1" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="KH2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="KI2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="KJ2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="KK2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="KL2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="KM2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="KN2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="KO2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="KP2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="KQ2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="KR2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="KS2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="KT2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="KU2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="KV2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="KW2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="KX2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="KY2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="KZ2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LA2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LB2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LC2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LD2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LE2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LF2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LG2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LH2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LI2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LJ2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LK2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LL2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LM2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LN2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LO2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LP2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LQ2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LR2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LS2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LT2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LU2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LV2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LW2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LX2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LY2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="LZ2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="MA2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="MB2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="MC2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="MD2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="ME2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="MF2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="MG2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="MH2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="MI2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="MJ2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="MK2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="ML2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/_apidocs/entity-api/v1/v3_CSV_Response.xlsx
+++ b/_apidocs/entity-api/v1/v3_CSV_Response.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BhargavBoppana\IdeaProjects\open-gsa-redesign1\_apidocs\entity-api\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132077DC-E10E-42EC-9DCD-95E83EA5930B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC77BE56-932F-4949-BD0E-14A12DA13B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4092" yWindow="2340" windowWidth="16584" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="376">
   <si>
     <t>samRegistered</t>
   </si>
@@ -85,9 +85,6 @@
     <t>immediateParentEntity.ueiSAM</t>
   </si>
   <si>
-    <t>immediateParentEntity.ueiDUNS</t>
-  </si>
-  <si>
     <t>immediateParentEntity.legalBusinessName</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>domesticParent.ueiSAM</t>
   </si>
   <si>
-    <t>domesticParent.ueiDUNS</t>
-  </si>
-  <si>
     <t>domesticParent.legalBusinessName</t>
   </si>
   <si>
@@ -151,9 +145,6 @@
     <t>hqParent.ueiSAM</t>
   </si>
   <si>
-    <t>hqParent.ueiDUNS</t>
-  </si>
-  <si>
     <t>hqParent.legalBusinessName</t>
   </si>
   <si>
@@ -182,9 +173,6 @@
   </si>
   <si>
     <t>ultimateParentEntity.ueiSAM</t>
-  </si>
-  <si>
-    <t>ultimateParentEntity.ueiDUNS</t>
   </si>
   <si>
     <t>ultimateParentEntity.legalBusinessName</t>
@@ -2009,11 +1997,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:MK2"/>
+  <dimension ref="A1:MG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2024,32 +2010,31 @@
     <col min="14" max="14" width="19.21875" style="1" customWidth="1"/>
     <col min="15" max="19" width="9.21875" style="1"/>
     <col min="20" max="20" width="26.77734375" style="1" customWidth="1"/>
-    <col min="21" max="24" width="9.21875" style="1"/>
-    <col min="25" max="25" width="40.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="40.5546875" style="1" customWidth="1"/>
-    <col min="27" max="28" width="34.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.21875" style="1"/>
-    <col min="30" max="30" width="42.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="9.21875" style="1"/>
-    <col min="33" max="33" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="9.21875" style="1"/>
-    <col min="36" max="36" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="33.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="33.5546875" style="1" customWidth="1"/>
-    <col min="39" max="48" width="9.21875" style="1"/>
-    <col min="49" max="49" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="27.5546875" style="1" customWidth="1"/>
-    <col min="51" max="52" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="60" width="9.21875" style="1"/>
-    <col min="61" max="61" width="38.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="38.44140625" style="1" customWidth="1"/>
-    <col min="63" max="63" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="289" width="9.21875" style="1"/>
-    <col min="290" max="290" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="291" max="16384" width="9.21875" style="1"/>
+    <col min="21" max="23" width="9.21875" style="1"/>
+    <col min="24" max="24" width="40.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="40.5546875" style="1" customWidth="1"/>
+    <col min="26" max="27" width="34.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.21875" style="1"/>
+    <col min="29" max="29" width="42.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.21875" style="1"/>
+    <col min="32" max="32" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="9.21875" style="1"/>
+    <col min="35" max="35" width="33.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="33.5546875" style="1" customWidth="1"/>
+    <col min="37" max="45" width="9.21875" style="1"/>
+    <col min="46" max="46" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.5546875" style="1" customWidth="1"/>
+    <col min="48" max="49" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="56" width="9.21875" style="1"/>
+    <col min="57" max="57" width="38.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="38.44140625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="285" width="9.21875" style="1"/>
+    <col min="286" max="286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="287" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:349" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:345" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2081,7 +2066,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -2105,7 +2090,7 @@
         <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>17</v>
@@ -2123,10 +2108,10 @@
         <v>21</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>23</v>
@@ -2156,13 +2141,13 @@
         <v>31</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>34</v>
@@ -2189,16 +2174,16 @@
         <v>41</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>45</v>
@@ -2222,19 +2207,19 @@
         <v>51</v>
       </c>
       <c r="BF1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>56</v>
@@ -3085,52 +3070,40 @@
       <c r="MG1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="MH1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:345" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="MI1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="MJ1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="MK1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="2" spans="1:349" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L2" s="2">
         <v>44379</v>
@@ -3145,7 +3118,7 @@
         <v>44379</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q2" s="2">
         <v>44744</v>
@@ -3154,280 +3127,280 @@
         <v>44379</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="CI2" s="2">
+        <v>29160</v>
+      </c>
+      <c r="CJ2" s="3">
+        <v>44500</v>
+      </c>
+      <c r="CK2" s="2">
+        <v>44379</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="CN2" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>11111</v>
+      </c>
+      <c r="CQ2" s="1">
+        <v>1111</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="CU2" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BS2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="BT2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="CK2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="CM2" s="2">
-        <v>29160</v>
-      </c>
-      <c r="CN2" s="3">
-        <v>44500</v>
-      </c>
-      <c r="CO2" s="2">
-        <v>44379</v>
-      </c>
-      <c r="CP2" s="1" t="s">
+      <c r="CW2" s="1">
+        <v>11111</v>
+      </c>
+      <c r="CX2" s="1">
+        <v>1111</v>
+      </c>
+      <c r="CY2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="CQ2" s="1" t="s">
+      <c r="CZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="DB2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="DC2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="CR2" s="1" t="s">
+      <c r="DD2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="CS2" s="1" t="s">
+      <c r="DE2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="CT2" s="1">
-        <v>11111</v>
-      </c>
-      <c r="CU2" s="1">
-        <v>1111</v>
-      </c>
-      <c r="CV2" s="1" t="s">
+      <c r="DF2" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="CW2" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="CX2" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="CY2" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="CZ2" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="DA2" s="1">
-        <v>11111</v>
-      </c>
-      <c r="DB2" s="1">
-        <v>1111</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="DD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="DG2" s="1" t="s">
         <v>358</v>
@@ -3436,715 +3409,703 @@
         <v>359</v>
       </c>
       <c r="DI2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="DM2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="DJ2" s="1" t="s">
+      <c r="DN2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="DK2" s="1" t="s">
+      <c r="DO2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="DS2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="DL2" s="1" t="s">
+      <c r="DT2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="DM2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="DN2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
+      <c r="DU2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="DY2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="DR2" s="1" t="s">
+      <c r="DZ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EA2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EB2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EC2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EF2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EH2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EJ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EK2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EL2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EM2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EN2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EO2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EP2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EQ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="ER2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="ES2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="ET2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EU2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EV2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EW2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EX2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EY2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EZ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="FA2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="FB2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="FC2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="DS2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="DT2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="DU2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="DV2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="DW2" s="1" t="s">
+      <c r="FD2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="FE2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="DX2" s="1" t="s">
+      <c r="FF2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="DY2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="DZ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EA2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EB2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EC2" s="1" t="s">
+      <c r="FG2" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="FH2" s="1">
+        <v>1234</v>
+      </c>
+      <c r="FI2" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="FJ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="FK2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="ED2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EE2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EF2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EG2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EH2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EI2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EJ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EK2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EL2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EM2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EN2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EO2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EP2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EQ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="ER2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="ES2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="ET2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EU2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EV2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EW2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EX2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EY2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EZ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="FA2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="FB2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="FC2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="FD2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="FE2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="FF2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="FG2" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="FH2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="FI2" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="FJ2" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="FK2" s="1">
+      <c r="FL2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="FM2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="FN2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="FO2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="FP2" s="1">
+        <v>11111</v>
+      </c>
+      <c r="FQ2" s="1">
+        <v>1111</v>
+      </c>
+      <c r="FR2" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="FS2" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="FT2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="FU2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="FV2" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="FW2" s="1">
         <v>1234567890</v>
       </c>
-      <c r="FL2" s="1">
+      <c r="FX2" s="1">
         <v>1234</v>
       </c>
-      <c r="FM2" s="1">
+      <c r="FY2" s="1">
         <v>1234567890</v>
       </c>
-      <c r="FN2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="FO2" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="FP2" s="1" t="s">
+      <c r="FZ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GA2" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="GB2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="GC2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="GD2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="GE2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="GF2" s="1">
+        <v>11111</v>
+      </c>
+      <c r="GG2" s="1">
+        <v>1111</v>
+      </c>
+      <c r="GH2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="FQ2" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="FR2" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="FS2" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="FT2" s="1">
-        <v>11111</v>
-      </c>
-      <c r="FU2" s="1">
-        <v>1111</v>
-      </c>
-      <c r="FV2" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="FW2" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="FX2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="FY2" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="FZ2" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="GA2" s="1">
+      <c r="GI2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GJ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GK2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GL2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GM2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GN2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GO2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GP2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GQ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GR2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GS2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GT2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GU2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GV2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GW2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GX2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GY2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GZ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HA2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HB2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HC2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HD2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HE2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HF2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HG2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HH2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HI2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HJ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HK2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HL2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HM2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HN2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HO2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HP2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HQ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HR2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HS2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HT2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HU2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HV2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HW2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HX2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HY2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="HZ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IA2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IB2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IC2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="ID2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IE2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IF2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IG2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IH2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="II2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IJ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IK2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IL2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IM2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IN2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IO2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IP2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IQ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IR2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IS2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IT2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IU2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IV2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IW2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IX2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IY2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IZ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JA2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JB2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JC2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JD2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JE2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JF2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JG2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JH2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JI2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JJ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JK2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JL2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JM2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JN2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JO2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JP2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JQ2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JR2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JS2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JT2" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="JU2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JV2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="JW2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JX2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JY2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="JZ2" s="1">
         <v>1234567890</v>
       </c>
-      <c r="GB2" s="1">
-        <v>1234</v>
-      </c>
-      <c r="GC2" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="GD2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="GE2" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="GF2" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="GG2" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="GH2" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="GI2" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="GJ2" s="1">
-        <v>11111</v>
-      </c>
-      <c r="GK2" s="1">
-        <v>1111</v>
-      </c>
-      <c r="GL2" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="GM2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="GN2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="GO2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="GP2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="GQ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="GR2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="GS2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="GT2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="GU2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="GV2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="GW2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="GX2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="GY2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="GZ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HA2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HB2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HC2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HD2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HE2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HF2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HG2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HH2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HI2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HJ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HK2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HL2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HM2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HN2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HO2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HP2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HQ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HR2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HS2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HT2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HU2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HV2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HW2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HX2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HY2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HZ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IA2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IB2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IC2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="ID2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IE2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IF2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IG2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IH2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="II2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IJ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IK2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IL2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IM2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IN2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IO2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IP2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IQ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IR2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IS2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IT2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IU2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IV2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IW2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IX2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IY2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="IZ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JA2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JB2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JC2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JD2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JE2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JF2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JG2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JH2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JI2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JJ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JK2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JL2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JM2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JN2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JO2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JP2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JQ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JR2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JS2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JT2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JU2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JV2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JW2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JX2" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="JY2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="JZ2" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="KA2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KB2" s="1" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="KC2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="KD2" s="1">
-        <v>1234567890</v>
+        <v>341</v>
+      </c>
+      <c r="KD2" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="KE2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KF2" s="1" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="KG2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KH2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KI2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KJ2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KK2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KL2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KM2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KN2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KO2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KP2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KQ2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KR2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KS2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KT2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KU2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KV2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KW2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KX2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KY2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="KZ2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LA2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LB2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LC2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LD2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LE2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LF2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LG2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LH2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LI2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LJ2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LK2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LL2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LM2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LN2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LO2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LP2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LQ2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LR2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LS2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LT2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LU2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LV2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LW2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LX2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LY2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="LZ2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="MA2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="MB2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="MC2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="MD2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="ME2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="MF2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="MG2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="MH2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="MI2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="MJ2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="MK2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
